--- a/xlsx4/xlsx4test.xlsx
+++ b/xlsx4/xlsx4test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/go/src/github.com/timliudream/GolangTraining/xlsx4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/go/src/github.com/timliudream/officetools/xlsx4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -62,11 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -347,13 +348,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1">
@@ -368,13 +369,13 @@
       <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2">
         <v>13</v>
       </c>
@@ -382,61 +383,54 @@
         <v>141</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>21</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3">
         <v>22</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>23</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>23</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>8888888</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1">
-        <v>99988877</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:C8"/>
-    <mergeCell ref="E4:E9"/>
+  <mergeCells count="2">
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
